--- a/medicine/Sexualité et sexologie/Moneyboys/Moneyboys.xlsx
+++ b/medicine/Sexualité et sexologie/Moneyboys/Moneyboys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moneyboys (chinois : 金錢男孩 ; pinyin : Jīnqián nánhái) est un film multinational écrit et réalisé par C. B. Yi, sorti en 2021. Il s'agit de son premier long métrage[2].
-Il est présenté en sélection officielle dans la catégorie « Un certain regard », le 12 juillet 2021, au Festival de Cannes[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moneyboys (chinois : 金錢男孩 ; pinyin : Jīnqián nánhái) est un film multinational écrit et réalisé par C. B. Yi, sorti en 2021. Il s'agit de son premier long métrage.
+Il est présenté en sélection officielle dans la catégorie « Un certain regard », le 12 juillet 2021, au Festival de Cannes,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fei (Kai Ko), venant du petit village chinois, se prostitue dans les grandes villes pour soutenir financièrement sa famille.
 </t>
@@ -543,28 +557,30 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
  Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données d'Unifrance.
 Titre original : 金錢男孩
 Titre international : Moneyboys
 Réalisation et scénario : C. B. Yi
-Musique : Yun Xie-Loussignian[1]
-Décors : Huei-Li Liao[1]
-Costumes : Zoe Wang[1]
+Musique : Yun Xie-Loussignian
+Décors : Huei-Li Liao
+Costumes : Zoe Wang
 Photographie : Jean-Louis Vialard
 Montage : Dieter Pichler
 Production : Gabriele Kranzelbinder ; Guillaume de la Boulaye, Patrick Mao Huang, André Logie et Barbara Pichler (coproducteurs)
-Sociétés de production : KGP Filmproduktion ; La Compagnie Cinématographique ; Arte France Cinéma ; Panache Productions et Zorba Production (coproductions)[1]
-Sociétés de distribution : Filmladen[1] (Autriche) ; ARP Sélection (France)
+Sociétés de production : KGP Filmproduktion ; La Compagnie Cinématographique ; Arte France Cinéma ; Panache Productions et Zorba Production (coproductions)
+Sociétés de distribution : Filmladen (Autriche) ; ARP Sélection (France)
 Pays de production :  Taïwan /  Autriche /  France /  Belgique
 Langues originales : mandarin, taïwanais
 Format : couleur
 Genre : drame
-Durée : 120 minutes[1]
+Durée : 120 minutes
 Dates de sortie :
-France : 12 juillet 2021 (Festival de Cannes) ; 16 mars 2022 (sortie nationale)[5]</t>
+France : 12 juillet 2021 (Festival de Cannes) ; 16 mars 2022 (sortie nationale)</t>
         </is>
       </c>
     </row>
@@ -592,7 +608,9 @@
           <t>Distributions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kai Ko : Fei
 Chloe Maayan : Lulu / Hong / Liyu
@@ -626,10 +644,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En juin 2019, on apprend que l'acteur Kai Ko est engagé au film aux côtés de Chloe Maayan et JC Lin. Le film est produit et distribué avec les pays européens tels que l'Autriche, la Belgique et la France[6].
-Le tournage a secrètement lieu à Taipei à Taïwan, en 39 jours, de mai à juillet 2019[7] ; l'histoire se déroule en Chine[2],[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juin 2019, on apprend que l'acteur Kai Ko est engagé au film aux côtés de Chloe Maayan et JC Lin. Le film est produit et distribué avec les pays européens tels que l'Autriche, la Belgique et la France.
+Le tournage a secrètement lieu à Taipei à Taïwan, en 39 jours, de mai à juillet 2019 ; l'histoire se déroule en Chine,.
 </t>
         </is>
       </c>
@@ -658,7 +678,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Nominations
 Festival de Cannes 2021 — « Un certain regard » :
